--- a/test_http_requests/testcase.xlsx
+++ b/test_http_requests/testcase.xlsx
@@ -1063,7 +1063,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1127,6 +1127,11 @@
           <t>result</t>
         </is>
       </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>result</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="89.25" customHeight="1">
       <c r="A2" s="3" t="n">
@@ -1168,6 +1173,33 @@
         <v>200</v>
       </c>
       <c r="I2" t="inlineStr">
+        <is>
+          <t>{
+  "msg": "分页查询网关整体情况分析数据成功",
+  "code": 200,
+  "data": {
+    "pageSize": 50,
+    "total": 1,
+    "pages": 1,
+    "rows": [
+      {
+        "gatewayId": "c4cd82000486abab",
+        "upDevAvg": 1.5,
+        "upDevSum": 18.0,
+        "downDevAvg": 1.5,
+        "downDevSum": 8.0,
+        "joinDevSum": 3.0,
+        "offlineDuration": 0,
+        "offlineCount": 0,
+        "dataUsed": 0
+      }
+    ],
+    "pageNum": 1
+  }
+}</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
         <is>
           <t>{
   "msg": "分页查询网关整体情况分析数据成功",
@@ -1283,6 +1315,55 @@
 }</t>
         </is>
       </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>{
+  "msg": "分页查询终端整体情况分析数据成功",
+  "code": 200,
+  "data": {
+    "pageSize": 50,
+    "total": 3,
+    "pages": 1,
+    "rows": [
+      {
+        "devEUI": "1111111111111111",
+        "aliveStatus": 1,
+        "upGatewayRedundancyCount": 0.0,
+        "upDataCnt": 2.0,
+        "upSnrAvg": 9.5,
+        "upRssiAvg": -48.0,
+        "upLoseCnt": 1.0,
+        "downDataCnt": 2.0,
+        "joinDataCnt": 1.0
+      },
+      {
+        "devEUI": "55af45054cc69efc",
+        "aliveStatus": 1,
+        "upGatewayRedundancyCount": 0.0,
+        "upDataCnt": 5.0,
+        "upSnrAvg": 10.52,
+        "upRssiAvg": -62.0,
+        "upLoseCnt": 1.0,
+        "downDataCnt": 2.0,
+        "joinDataCnt": 1.0
+      },
+      {
+        "devEUI": "c4cd000020210510",
+        "aliveStatus": 1,
+        "upGatewayRedundancyCount": 1.0,
+        "upDataCnt": 10.0,
+        "upSnrAvg": 10.02,
+        "upRssiAvg": -18.4,
+        "upLoseCnt": 1.0,
+        "downDataCnt": 4.0,
+        "joinDataCnt": 1.0
+      }
+    ],
+    "pageNum": 1
+  }
+}</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:H3"/>

--- a/test_http_requests/testcase.xlsx
+++ b/test_http_requests/testcase.xlsx
@@ -61,36 +61,16 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
       <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -105,6 +85,21 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
       <color rgb="FF3F3F76"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -112,8 +107,16 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -121,38 +124,6 @@
       <charset val="0"/>
       <b val="1"/>
       <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -167,7 +138,28 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
       <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -182,8 +174,16 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
       <b val="1"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -215,19 +215,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -239,151 +341,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,59 +412,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -486,6 +444,63 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -494,31 +509,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -527,32 +527,35 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1">
@@ -561,97 +564,94 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="9" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1063,7 +1063,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1127,11 +1127,6 @@
           <t>result</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>result</t>
-        </is>
-      </c>
     </row>
     <row r="2" ht="89.25" customHeight="1">
       <c r="A2" s="3" t="n">
@@ -1173,33 +1168,6 @@
         <v>200</v>
       </c>
       <c r="I2" t="inlineStr">
-        <is>
-          <t>{
-  "msg": "分页查询网关整体情况分析数据成功",
-  "code": 200,
-  "data": {
-    "pageSize": 50,
-    "total": 1,
-    "pages": 1,
-    "rows": [
-      {
-        "gatewayId": "c4cd82000486abab",
-        "upDevAvg": 1.5,
-        "upDevSum": 18.0,
-        "downDevAvg": 1.5,
-        "downDevSum": 8.0,
-        "joinDevSum": 3.0,
-        "offlineDuration": 0,
-        "offlineCount": 0,
-        "dataUsed": 0
-      }
-    ],
-    "pageNum": 1
-  }
-}</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
         <is>
           <t>{
   "msg": "分页查询网关整体情况分析数据成功",
@@ -1315,55 +1283,6 @@
 }</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>{
-  "msg": "分页查询终端整体情况分析数据成功",
-  "code": 200,
-  "data": {
-    "pageSize": 50,
-    "total": 3,
-    "pages": 1,
-    "rows": [
-      {
-        "devEUI": "1111111111111111",
-        "aliveStatus": 1,
-        "upGatewayRedundancyCount": 0.0,
-        "upDataCnt": 2.0,
-        "upSnrAvg": 9.5,
-        "upRssiAvg": -48.0,
-        "upLoseCnt": 1.0,
-        "downDataCnt": 2.0,
-        "joinDataCnt": 1.0
-      },
-      {
-        "devEUI": "55af45054cc69efc",
-        "aliveStatus": 1,
-        "upGatewayRedundancyCount": 0.0,
-        "upDataCnt": 5.0,
-        "upSnrAvg": 10.52,
-        "upRssiAvg": -62.0,
-        "upLoseCnt": 1.0,
-        "downDataCnt": 2.0,
-        "joinDataCnt": 1.0
-      },
-      {
-        "devEUI": "c4cd000020210510",
-        "aliveStatus": 1,
-        "upGatewayRedundancyCount": 1.0,
-        "upDataCnt": 10.0,
-        "upSnrAvg": 10.02,
-        "upRssiAvg": -18.4,
-        "upLoseCnt": 1.0,
-        "downDataCnt": 4.0,
-        "joinDataCnt": 1.0
-      }
-    ],
-    "pageNum": 1
-  }
-}</t>
-        </is>
-      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:H3"/>

--- a/test_http_requests/testcase.xlsx
+++ b/test_http_requests/testcase.xlsx
@@ -54,23 +54,7 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -85,7 +69,22 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <color theme="1"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -100,30 +99,7 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -138,8 +114,9 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -152,14 +129,15 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <color rgb="FFFF0000"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -174,8 +152,8 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
+      <b val="1"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -183,7 +161,29 @@
       <name val="等线"/>
       <charset val="0"/>
       <b val="1"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -209,175 +209,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,17 +412,29 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -438,24 +450,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -477,9 +471,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -499,13 +495,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -515,10 +515,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -527,16 +527,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
@@ -546,112 +546,112 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="9" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1063,12 +1063,12 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="I1" sqref="I$1:J$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="0"/>
@@ -1124,6 +1124,11 @@
       </c>
       <c r="I1" t="inlineStr">
         <is>
+          <t>status_code</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
           <t>result</t>
         </is>
       </c>
@@ -1167,7 +1172,10 @@
       <c r="H2" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="I2" t="n">
+        <v>200</v>
+      </c>
+      <c r="J2" t="inlineStr">
         <is>
           <t>{
   "msg": "分页查询网关整体情况分析数据成功",
@@ -1234,7 +1242,10 @@
       <c r="H3" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="I3" t="n">
+        <v>200</v>
+      </c>
+      <c r="J3" t="inlineStr">
         <is>
           <t>{
   "msg": "分页查询终端整体情况分析数据成功",
